--- a/DataSet/DataSet-quantitative.xlsx
+++ b/DataSet/DataSet-quantitative.xlsx
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="10305" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11100" windowHeight="10305" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="DataSet-quantitative" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1314" uniqueCount="392">
   <si>
     <t>32-40</t>
   </si>
@@ -1139,13 +1141,70 @@
   </si>
   <si>
     <t>A151</t>
+  </si>
+  <si>
+    <t>Anova: Two-Factor With Replication</t>
+  </si>
+  <si>
+    <t>SUMMARY</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>ANOVA</t>
+  </si>
+  <si>
+    <t>Source of Variation</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+  <si>
+    <t>F crit</t>
+  </si>
+  <si>
+    <t>Sample</t>
+  </si>
+  <si>
+    <t>Columns</t>
+  </si>
+  <si>
+    <t>Interaction</t>
+  </si>
+  <si>
+    <t>Within</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,6 +1344,22 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="38">
@@ -1498,7 +1573,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -1650,6 +1725,35 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="18"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1695,7 +1799,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -1762,6 +1866,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2087,8 +2199,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU167"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="M135" sqref="M135"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23848,10 +23960,606 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="28">
+        <v>151</v>
+      </c>
+      <c r="C5" s="28">
+        <v>151</v>
+      </c>
+      <c r="D5" s="28">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="28">
+        <v>582</v>
+      </c>
+      <c r="C6" s="28">
+        <v>589</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="28">
+        <v>3.8543046357615895</v>
+      </c>
+      <c r="C7" s="28">
+        <v>3.9006622516556293</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3.8774834437086092</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1.2586313465783678</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1.2500662251655619</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1.2507205562033836</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="28">
+        <v>151</v>
+      </c>
+      <c r="C11" s="28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="28">
+        <v>582</v>
+      </c>
+      <c r="C12" s="28">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3.8543046357615895</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3.9006622516556293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1.2586313465783678</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1.2500662251655619</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="28">
+        <v>65535</v>
+      </c>
+      <c r="F19" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="28">
+        <v>0.16225165562946131</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <v>0.16225165562946131</v>
+      </c>
+      <c r="E20" s="28">
+        <v>0.12935130759238669</v>
+      </c>
+      <c r="F20" s="28">
+        <v>0.71935861244202515</v>
+      </c>
+      <c r="G20" s="28">
+        <v>3.8726422617304488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="28">
+        <v>65535</v>
+      </c>
+      <c r="F21" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G21" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="28">
+        <v>376.30463576158945</v>
+      </c>
+      <c r="C22" s="28">
+        <v>300</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1.2543487858719649</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="30">
+        <v>376.46688741721891</v>
+      </c>
+      <c r="C24" s="30">
+        <v>301</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B5" s="28">
+        <v>151</v>
+      </c>
+      <c r="C5" s="28">
+        <v>151</v>
+      </c>
+      <c r="D5" s="28">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B6" s="28">
+        <v>542</v>
+      </c>
+      <c r="C6" s="28">
+        <v>390</v>
+      </c>
+      <c r="D6" s="28">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B7" s="28">
+        <v>3.5894039735099339</v>
+      </c>
+      <c r="C7" s="28">
+        <v>2.5827814569536423</v>
+      </c>
+      <c r="D7" s="28">
+        <v>3.0860927152317883</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" s="28">
+        <v>1.2569536423841055</v>
+      </c>
+      <c r="C8" s="28">
+        <v>1.418101545253863</v>
+      </c>
+      <c r="D8" s="28">
+        <v>1.5872478053288162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+    </row>
+    <row r="10" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="29" t="s">
+        <v>375</v>
+      </c>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="28" t="s">
+        <v>376</v>
+      </c>
+      <c r="B11" s="28">
+        <v>151</v>
+      </c>
+      <c r="C11" s="28">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="28" t="s">
+        <v>377</v>
+      </c>
+      <c r="B12" s="28">
+        <v>542</v>
+      </c>
+      <c r="C12" s="28">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="28" t="s">
+        <v>378</v>
+      </c>
+      <c r="B13" s="28">
+        <v>3.5894039735099339</v>
+      </c>
+      <c r="C13" s="28">
+        <v>2.5827814569536423</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="28" t="s">
+        <v>379</v>
+      </c>
+      <c r="B14" s="28">
+        <v>1.2569536423841055</v>
+      </c>
+      <c r="C14" s="28">
+        <v>1.418101545253863</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="28"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="31" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>382</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>383</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>384</v>
+      </c>
+      <c r="E18" s="31" t="s">
+        <v>385</v>
+      </c>
+      <c r="F18" s="31" t="s">
+        <v>386</v>
+      </c>
+      <c r="G18" s="31" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="28" t="s">
+        <v>388</v>
+      </c>
+      <c r="B19" s="28">
+        <v>0</v>
+      </c>
+      <c r="C19" s="28">
+        <v>0</v>
+      </c>
+      <c r="D19" s="28">
+        <v>65535</v>
+      </c>
+      <c r="E19" s="28">
+        <v>65535</v>
+      </c>
+      <c r="F19" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G19" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="B20" s="28">
+        <v>76.503311258276312</v>
+      </c>
+      <c r="C20" s="28">
+        <v>1</v>
+      </c>
+      <c r="D20" s="28">
+        <v>76.503311258276312</v>
+      </c>
+      <c r="E20" s="28">
+        <v>57.197557352697046</v>
+      </c>
+      <c r="F20" s="28">
+        <v>4.8468205549446763E-13</v>
+      </c>
+      <c r="G20" s="28">
+        <v>3.8726422617304488</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
+        <v>390</v>
+      </c>
+      <c r="B21" s="28">
+        <v>0</v>
+      </c>
+      <c r="C21" s="28">
+        <v>0</v>
+      </c>
+      <c r="D21" s="28">
+        <v>65535</v>
+      </c>
+      <c r="E21" s="28">
+        <v>65535</v>
+      </c>
+      <c r="F21" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+      <c r="G21" s="28" t="e">
+        <v>#NUM!</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>391</v>
+      </c>
+      <c r="B22" s="28">
+        <v>401.25827814569567</v>
+      </c>
+      <c r="C22" s="28">
+        <v>300</v>
+      </c>
+      <c r="D22" s="28">
+        <v>1.3375275938189857</v>
+      </c>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="28"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="30" t="s">
+        <v>375</v>
+      </c>
+      <c r="B24" s="30">
+        <v>477.76158940397198</v>
+      </c>
+      <c r="C24" s="30">
+        <v>301</v>
+      </c>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="H136" sqref="H136"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23859,15 +24567,15 @@
     <col min="2" max="3" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" s="12" t="s">
-        <v>65</v>
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -23875,10 +24583,10 @@
         <v>222</v>
       </c>
       <c r="B2" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -23889,7 +24597,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -23897,10 +24605,10 @@
         <v>224</v>
       </c>
       <c r="B4" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -23908,10 +24616,10 @@
         <v>225</v>
       </c>
       <c r="B5" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -23919,10 +24627,10 @@
         <v>226</v>
       </c>
       <c r="B6" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -23930,7 +24638,7 @@
         <v>227</v>
       </c>
       <c r="B7" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C7" s="22">
         <v>3</v>
@@ -23941,10 +24649,10 @@
         <v>228</v>
       </c>
       <c r="B8" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -23952,10 +24660,10 @@
         <v>229</v>
       </c>
       <c r="B9" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -23963,10 +24671,10 @@
         <v>230</v>
       </c>
       <c r="B10" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C10" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -23974,10 +24682,10 @@
         <v>231</v>
       </c>
       <c r="B11" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C11" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -23988,7 +24696,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -23996,10 +24704,10 @@
         <v>233</v>
       </c>
       <c r="B13" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C13" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -24007,10 +24715,10 @@
         <v>234</v>
       </c>
       <c r="B14" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C14" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -24018,10 +24726,10 @@
         <v>235</v>
       </c>
       <c r="B15" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C15" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -24043,7 +24751,7 @@
         <v>3</v>
       </c>
       <c r="C17" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -24054,7 +24762,7 @@
         <v>3</v>
       </c>
       <c r="C18" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -24062,10 +24770,10 @@
         <v>239</v>
       </c>
       <c r="B19" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C19" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -24084,10 +24792,10 @@
         <v>241</v>
       </c>
       <c r="B21" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C21" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -24106,10 +24814,10 @@
         <v>243</v>
       </c>
       <c r="B23" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C23" s="22">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -24117,10 +24825,10 @@
         <v>244</v>
       </c>
       <c r="B24" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -24131,7 +24839,7 @@
         <v>5</v>
       </c>
       <c r="C25" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -24150,10 +24858,10 @@
         <v>247</v>
       </c>
       <c r="B27" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -24164,7 +24872,7 @@
         <v>5</v>
       </c>
       <c r="C28" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -24175,7 +24883,7 @@
         <v>4</v>
       </c>
       <c r="C29" s="22">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -24183,10 +24891,10 @@
         <v>250</v>
       </c>
       <c r="B30" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C30" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -24197,7 +24905,7 @@
         <v>3</v>
       </c>
       <c r="C31" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -24205,10 +24913,10 @@
         <v>252</v>
       </c>
       <c r="B32" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C32" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -24216,10 +24924,10 @@
         <v>253</v>
       </c>
       <c r="B33" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C33" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -24238,7 +24946,7 @@
         <v>255</v>
       </c>
       <c r="B35" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C35" s="22">
         <v>4</v>
@@ -24263,7 +24971,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -24274,7 +24982,7 @@
         <v>5</v>
       </c>
       <c r="C38" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -24282,10 +24990,10 @@
         <v>259</v>
       </c>
       <c r="B39" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C39" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -24296,7 +25004,7 @@
         <v>5</v>
       </c>
       <c r="C40" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -24307,7 +25015,7 @@
         <v>3</v>
       </c>
       <c r="C41" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -24318,7 +25026,7 @@
         <v>5</v>
       </c>
       <c r="C42" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -24326,7 +25034,7 @@
         <v>263</v>
       </c>
       <c r="B43" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C43" s="22">
         <v>3</v>
@@ -24340,7 +25048,7 @@
         <v>2</v>
       </c>
       <c r="C44" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -24348,10 +25056,10 @@
         <v>265</v>
       </c>
       <c r="B45" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C45" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -24359,7 +25067,7 @@
         <v>266</v>
       </c>
       <c r="B46" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C46" s="22">
         <v>4</v>
@@ -24373,7 +25081,7 @@
         <v>3</v>
       </c>
       <c r="C47" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -24395,7 +25103,7 @@
         <v>1</v>
       </c>
       <c r="C49" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -24403,10 +25111,10 @@
         <v>270</v>
       </c>
       <c r="B50" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C50" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -24417,7 +25125,7 @@
         <v>2</v>
       </c>
       <c r="C51" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -24425,10 +25133,10 @@
         <v>272</v>
       </c>
       <c r="B52" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C52" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -24436,10 +25144,10 @@
         <v>273</v>
       </c>
       <c r="B53" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C53" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -24461,7 +25169,7 @@
         <v>1</v>
       </c>
       <c r="C55" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -24472,7 +25180,7 @@
         <v>4</v>
       </c>
       <c r="C56" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -24480,10 +25188,10 @@
         <v>277</v>
       </c>
       <c r="B57" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C57" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -24494,7 +25202,7 @@
         <v>4</v>
       </c>
       <c r="C58" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -24502,10 +25210,10 @@
         <v>279</v>
       </c>
       <c r="B59" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C59" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -24513,10 +25221,10 @@
         <v>280</v>
       </c>
       <c r="B60" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C60" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -24524,10 +25232,10 @@
         <v>281</v>
       </c>
       <c r="B61" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C61" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -24535,10 +25243,10 @@
         <v>282</v>
       </c>
       <c r="B62" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C62" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -24546,10 +25254,10 @@
         <v>283</v>
       </c>
       <c r="B63" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C63" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -24560,7 +25268,7 @@
         <v>5</v>
       </c>
       <c r="C64" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -24568,7 +25276,7 @@
         <v>285</v>
       </c>
       <c r="B65" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C65" s="22">
         <v>1</v>
@@ -24579,10 +25287,10 @@
         <v>286</v>
       </c>
       <c r="B66" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C66" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -24590,10 +25298,10 @@
         <v>287</v>
       </c>
       <c r="B67" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -24601,10 +25309,10 @@
         <v>288</v>
       </c>
       <c r="B68" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -24612,10 +25320,10 @@
         <v>289</v>
       </c>
       <c r="B69" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -24623,7 +25331,7 @@
         <v>290</v>
       </c>
       <c r="B70" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" s="22">
         <v>4</v>
@@ -24634,10 +25342,10 @@
         <v>291</v>
       </c>
       <c r="B71" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C71" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -24648,7 +25356,7 @@
         <v>3</v>
       </c>
       <c r="C72" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -24670,7 +25378,7 @@
         <v>4</v>
       </c>
       <c r="C74" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -24681,7 +25389,7 @@
         <v>4</v>
       </c>
       <c r="C75" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -24689,10 +25397,10 @@
         <v>296</v>
       </c>
       <c r="B76" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C76" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -24700,7 +25408,7 @@
         <v>297</v>
       </c>
       <c r="B77" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C77" s="22">
         <v>4</v>
@@ -24714,7 +25422,7 @@
         <v>5</v>
       </c>
       <c r="C78" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -24722,7 +25430,7 @@
         <v>299</v>
       </c>
       <c r="B79" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C79" s="22">
         <v>3</v>
@@ -24736,7 +25444,7 @@
         <v>2</v>
       </c>
       <c r="C80" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -24744,10 +25452,10 @@
         <v>301</v>
       </c>
       <c r="B81" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C81" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -24755,10 +25463,10 @@
         <v>302</v>
       </c>
       <c r="B82" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -24766,7 +25474,7 @@
         <v>303</v>
       </c>
       <c r="B83" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C83" s="22">
         <v>1</v>
@@ -24788,10 +25496,10 @@
         <v>305</v>
       </c>
       <c r="B85" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C85" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -24813,7 +25521,7 @@
         <v>5</v>
       </c>
       <c r="C87" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -24824,7 +25532,7 @@
         <v>3</v>
       </c>
       <c r="C88" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -24832,10 +25540,10 @@
         <v>309</v>
       </c>
       <c r="B89" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C89" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -24843,10 +25551,10 @@
         <v>310</v>
       </c>
       <c r="B90" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C90" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -24857,7 +25565,7 @@
         <v>5</v>
       </c>
       <c r="C91" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -24865,10 +25573,10 @@
         <v>312</v>
       </c>
       <c r="B92" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C92" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -24879,7 +25587,7 @@
         <v>4</v>
       </c>
       <c r="C93" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -24887,7 +25595,7 @@
         <v>314</v>
       </c>
       <c r="B94" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C94" s="22">
         <v>4</v>
@@ -24898,7 +25606,7 @@
         <v>315</v>
       </c>
       <c r="B95" s="22">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C95" s="22">
         <v>5</v>
@@ -24909,10 +25617,10 @@
         <v>316</v>
       </c>
       <c r="B96" s="22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -24923,7 +25631,7 @@
         <v>3</v>
       </c>
       <c r="C97" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -24931,10 +25639,10 @@
         <v>318</v>
       </c>
       <c r="B98" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C98" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
@@ -24945,7 +25653,7 @@
         <v>4</v>
       </c>
       <c r="C99" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -24953,10 +25661,10 @@
         <v>320</v>
       </c>
       <c r="B100" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C100" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -24967,7 +25675,7 @@
         <v>5</v>
       </c>
       <c r="C101" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -24975,10 +25683,10 @@
         <v>322</v>
       </c>
       <c r="B102" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C102" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -24989,7 +25697,7 @@
         <v>5</v>
       </c>
       <c r="C103" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -24997,10 +25705,10 @@
         <v>324</v>
       </c>
       <c r="B104" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C104" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -25008,10 +25716,10 @@
         <v>325</v>
       </c>
       <c r="B105" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C105" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -25022,7 +25730,7 @@
         <v>4</v>
       </c>
       <c r="C106" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -25030,10 +25738,10 @@
         <v>327</v>
       </c>
       <c r="B107" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C107" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -25041,10 +25749,10 @@
         <v>328</v>
       </c>
       <c r="B108" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C108" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -25055,7 +25763,7 @@
         <v>3</v>
       </c>
       <c r="C109" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -25066,7 +25774,7 @@
         <v>4</v>
       </c>
       <c r="C110" s="22">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -25074,10 +25782,10 @@
         <v>331</v>
       </c>
       <c r="B111" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C111" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -25088,7 +25796,7 @@
         <v>4</v>
       </c>
       <c r="C112" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -25096,10 +25804,10 @@
         <v>333</v>
       </c>
       <c r="B113" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C113" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -25107,10 +25815,10 @@
         <v>334</v>
       </c>
       <c r="B114" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C114" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -25121,7 +25829,7 @@
         <v>4</v>
       </c>
       <c r="C115" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -25143,7 +25851,7 @@
         <v>4</v>
       </c>
       <c r="C117" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -25162,10 +25870,10 @@
         <v>339</v>
       </c>
       <c r="B119" s="22">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C119" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -25173,10 +25881,10 @@
         <v>340</v>
       </c>
       <c r="B120" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C120" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -25187,7 +25895,7 @@
         <v>3</v>
       </c>
       <c r="C121" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -25195,10 +25903,10 @@
         <v>342</v>
       </c>
       <c r="B122" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C122" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -25206,7 +25914,7 @@
         <v>343</v>
       </c>
       <c r="B123" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C123" s="22">
         <v>4</v>
@@ -25217,10 +25925,10 @@
         <v>344</v>
       </c>
       <c r="B124" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C124" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -25228,10 +25936,10 @@
         <v>345</v>
       </c>
       <c r="B125" s="22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C125" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -25242,7 +25950,7 @@
         <v>4</v>
       </c>
       <c r="C126" s="22">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -25253,7 +25961,7 @@
         <v>4</v>
       </c>
       <c r="C127" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -25261,10 +25969,10 @@
         <v>348</v>
       </c>
       <c r="B128" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C128" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -25272,10 +25980,10 @@
         <v>349</v>
       </c>
       <c r="B129" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C129" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -25283,10 +25991,10 @@
         <v>350</v>
       </c>
       <c r="B130" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C130" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -25294,10 +26002,10 @@
         <v>351</v>
       </c>
       <c r="B131" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C131" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -25308,7 +26016,7 @@
         <v>5</v>
       </c>
       <c r="C132" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -25330,7 +26038,7 @@
         <v>5</v>
       </c>
       <c r="C134" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -25341,7 +26049,7 @@
         <v>5</v>
       </c>
       <c r="C135" s="22">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -25352,7 +26060,7 @@
         <v>3</v>
       </c>
       <c r="C136" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -25363,7 +26071,7 @@
         <v>4</v>
       </c>
       <c r="C137" s="22">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -25371,10 +26079,10 @@
         <v>358</v>
       </c>
       <c r="B138" s="22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C138" s="22">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -25382,10 +26090,10 @@
         <v>359</v>
       </c>
       <c r="B139" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C139" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -25396,7 +26104,7 @@
         <v>4</v>
       </c>
       <c r="C140" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -25404,10 +26112,10 @@
         <v>361</v>
       </c>
       <c r="B141" s="22">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C141" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -25415,10 +26123,10 @@
         <v>362</v>
       </c>
       <c r="B142" s="22">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C142" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -25429,7 +26137,7 @@
         <v>4</v>
       </c>
       <c r="C143" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -25440,7 +26148,7 @@
         <v>5</v>
       </c>
       <c r="C144" s="22">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -25448,7 +26156,7 @@
         <v>365</v>
       </c>
       <c r="B145" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C145" s="22">
         <v>3</v>
@@ -25459,10 +26167,10 @@
         <v>366</v>
       </c>
       <c r="B146" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C146" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
@@ -25470,10 +26178,10 @@
         <v>367</v>
       </c>
       <c r="B147" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C147" s="22">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
@@ -25503,10 +26211,10 @@
         <v>370</v>
       </c>
       <c r="B150" s="22">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C150" s="22">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -25525,10 +26233,10 @@
         <v>372</v>
       </c>
       <c r="B152" s="22">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C152" s="22">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
